--- a/svmx/test_lab/test_cases/analytics/Pre-Release/MTTC_fresh.xlsx
+++ b/svmx/test_lab/test_cases/analytics/Pre-Release/MTTC_fresh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinayav/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/auto/sahi_pro/userdata/scripts/Sahi_Project/svmx/test_lab/test_cases/analytics/Pre-Release/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -140,15 +140,9 @@
     <t>Estimate</t>
   </si>
   <si>
-    <t>a1Oq0000000KAFxEAO</t>
-  </si>
-  <si>
     <t>System.Now()</t>
   </si>
   <si>
-    <t>a1Zq0000001jyS9</t>
-  </si>
-  <si>
     <t>2017-09-21 10:00:00</t>
   </si>
   <si>
@@ -195,6 +189,12 @@
   </si>
   <si>
     <t>a0T1g0000008TIjEAM</t>
+  </si>
+  <si>
+    <t>a2A1g000000CjgiEAC</t>
+  </si>
+  <si>
+    <t>a2N1g000000EWRz</t>
   </si>
 </sst>
 </file>
@@ -256,8 +256,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -313,7 +317,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -324,6 +328,8 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -334,6 +340,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -611,7 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
@@ -628,7 +636,8 @@
     <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -716,16 +725,16 @@
     </row>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>27</v>
@@ -769,63 +778,63 @@
       <c r="R2" s="6">
         <v>42999</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="W2" s="6">
         <v>42999</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:27" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>26</v>
@@ -843,7 +852,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>34</v>
@@ -857,21 +866,21 @@
     </row>
     <row r="6" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="10"/>
       <c r="Z6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
